--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Corse/Liste_des_espèces_végétales_protégées_en_Corse.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Corse/Liste_des_espèces_végétales_protégées_en_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Corse</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Corse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Corse est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Corse, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 24 juin 1986[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Corse est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Corse, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 24 juin 1986.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Corse</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Corse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Asplenium marinum L. : asplenium marin
 Asplenium petrarchae (Guérin) DC. subsp. petrarchae : asplenium de Pétrarque sous-espèce de Pétrarque
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Corse</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Corse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gymnospermes
-Juniperus oxycedrus L. subsp. macrocarpa (Sibth &amp; Sm.) Ball : genévrier oxycèdre à gros fruits
-Angiospermes
-Monocotylédones
-Aira provincialis Jordan : canche de Provence
+          <t>Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juniperus oxycedrus L. subsp. macrocarpa (Sibth &amp; Sm.) Ball : genévrier oxycèdre à gros fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Corse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Corse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aira provincialis Jordan : canche de Provence
 Antinoria insularis Parl. : antinorie insulaire
 Bromus fasciculatus C. Presl : brome en faisceaux
 Colchicum corsicum Baker : colchique de Corse
@@ -568,9 +624,47 @@
 Romulea ligustica Parl. : romulée de Ligurie
 Romulea revelierei Jord. &amp; Fourr. : romulée de Revélière
 Trisetum conradiae Gamisans : trisète de Conrad
-Trisetum gracile (Moris) Boiss. : trisète grêle
-Dicotylédones
-Aconitum napellus L. subsp. corsicum (Gayer) Seitz : aconit de Corse
+Trisetum gracile (Moris) Boiss. : trisète grêle</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Corse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Corse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aconitum napellus L. subsp. corsicum (Gayer) Seitz : aconit de Corse
 Astragalus boeticus L. : astragale de Bétique
 Biscutella rotgesii Fouc. : biscutelle de Rotgès
 Calystegia silvatica (Kit.) Griseb. : liseron des bois
